--- a/graph_expr/output/goodcol_outputs- Email_lb20_lb20_cyc_d_q7/Email_lb20_lb20_cyc_d_q7__ansgrBYVIEWS_newcols.xlsx
+++ b/graph_expr/output/goodcol_outputs- Email_lb20_lb20_cyc_d_q7/Email_lb20_lb20_cyc_d_q7__ansgrBYVIEWS_newcols.xlsx
@@ -358,7 +358,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.01953125" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.03125" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -782,12 +782,14 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="2" width="10"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="1" style="2" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="2" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,7 +823,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -833,7 +835,8 @@
         <v>0.47</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <f aca="false">F2-D2</f>
+        <v>0.67</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>1.14</v>
@@ -855,7 +858,7 @@
         <v>3144604</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -866,8 +869,9 @@
       <c r="D3" s="5" t="n">
         <v>5.65</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>0</v>
+      <c r="E3" s="2" t="n">
+        <f aca="false">F3-D3</f>
+        <v>8.6</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>14.25</v>
@@ -888,7 +892,7 @@
         <v>3144604</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -899,8 +903,9 @@
       <c r="D4" s="5" t="n">
         <v>6.03</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>0</v>
+      <c r="E4" s="2" t="n">
+        <f aca="false">F4-D4</f>
+        <v>2</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>8.03</v>
@@ -921,7 +926,7 @@
         <v>3144604</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -932,8 +937,9 @@
       <c r="D5" s="5" t="n">
         <v>6.02</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>0</v>
+      <c r="E5" s="2" t="n">
+        <f aca="false">F5-D5</f>
+        <v>5.14</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>11.16</v>
@@ -1011,7 +1017,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1025,7 +1031,8 @@
         <v>4.9</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0</v>
+        <f aca="false">F9-D9</f>
+        <v>7.24</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>12.14</v>
@@ -1046,7 +1053,7 @@
         <v>3144604</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -1060,7 +1067,8 @@
         <v>4.99</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
+        <f aca="false">F10-D10</f>
+        <v>0.58</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>5.57</v>
@@ -1081,7 +1089,7 @@
         <v>3144604</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
@@ -1095,7 +1103,8 @@
         <v>4.8</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0</v>
+        <f aca="false">F11-D11</f>
+        <v>3.57</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>8.37</v>
